--- a/Excel-XLSX/UN-JOR.xlsx
+++ b/Excel-XLSX/UN-JOR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="1069">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Qku503</t>
+    <t>5t5nSn</t>
   </si>
   <si>
     <t>1971</t>
@@ -3144,16 +3144,16 @@
     <t>710</t>
   </si>
   <si>
-    <t>26755</t>
-  </si>
-  <si>
-    <t>24002</t>
+    <t>25710</t>
+  </si>
+  <si>
+    <t>20750</t>
   </si>
   <si>
     <t>711</t>
   </si>
   <si>
-    <t>1054</t>
+    <t>1042</t>
   </si>
   <si>
     <t>712</t>
@@ -3195,37 +3195,34 @@
     <t>725</t>
   </si>
   <si>
+    <t>3149</t>
+  </si>
+  <si>
+    <t>1751</t>
+  </si>
+  <si>
     <t>726</t>
   </si>
   <si>
-    <t>3136</t>
-  </si>
-  <si>
-    <t>1785</t>
+    <t>611473</t>
+  </si>
+  <si>
+    <t>65268</t>
   </si>
   <si>
     <t>727</t>
   </si>
   <si>
-    <t>628135</t>
-  </si>
-  <si>
-    <t>3486</t>
-  </si>
-  <si>
     <t>728</t>
   </si>
   <si>
     <t>729</t>
   </si>
   <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>10411</t>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>8998</t>
   </si>
 </sst>
 </file>
@@ -3610,7 +3607,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V731"/>
+  <dimension ref="A1:V730"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -51123,10 +51120,10 @@
         <v>30</v>
       </c>
       <c r="N699" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="O699" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="P699" s="2" t="s">
         <v>32</v>
@@ -51259,10 +51256,10 @@
         <v>30</v>
       </c>
       <c r="N701" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="O701" s="2" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="P701" s="2" t="s">
         <v>32</v>
@@ -51463,7 +51460,7 @@
         <v>30</v>
       </c>
       <c r="N704" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="O704" s="2" t="s">
         <v>32</v>
@@ -51534,7 +51531,7 @@
         <v>65</v>
       </c>
       <c r="O705" s="2" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="P705" s="2" t="s">
         <v>32</v>
@@ -51667,7 +51664,7 @@
         <v>30</v>
       </c>
       <c r="N707" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O707" s="2" t="s">
         <v>32</v>
@@ -51753,7 +51750,7 @@
         <v>32</v>
       </c>
       <c r="T708" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="U708" s="1" t="s">
         <v>33</v>
@@ -51945,7 +51942,7 @@
         <v>1043</v>
       </c>
       <c r="P711" s="2" t="s">
-        <v>143</v>
+        <v>228</v>
       </c>
       <c r="Q711" s="2" t="s">
         <v>32</v>
@@ -52143,7 +52140,7 @@
         <v>30</v>
       </c>
       <c r="N714" s="2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O714" s="2" t="s">
         <v>32</v>
@@ -52214,7 +52211,7 @@
         <v>48</v>
       </c>
       <c r="O715" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="P715" s="2" t="s">
         <v>32</v>
@@ -52415,7 +52412,7 @@
         <v>30</v>
       </c>
       <c r="N718" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O718" s="2" t="s">
         <v>32</v>
@@ -52486,7 +52483,7 @@
         <v>51</v>
       </c>
       <c r="O719" s="2" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="P719" s="2" t="s">
         <v>32</v>
@@ -52705,7 +52702,7 @@
         <v>32</v>
       </c>
       <c r="T722" s="2" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="U722" s="1" t="s">
         <v>33</v>
@@ -52731,16 +52728,16 @@
         <v>1029</v>
       </c>
       <c r="F723" s="2" t="s">
-        <v>334</v>
+        <v>88</v>
       </c>
       <c r="G723" s="1" t="s">
-        <v>693</v>
+        <v>89</v>
       </c>
       <c r="H723" s="1" t="s">
-        <v>694</v>
+        <v>90</v>
       </c>
       <c r="I723" s="1" t="s">
-        <v>694</v>
+        <v>90</v>
       </c>
       <c r="J723" s="2" t="s">
         <v>28</v>
@@ -52755,7 +52752,7 @@
         <v>30</v>
       </c>
       <c r="N723" s="2" t="s">
-        <v>32</v>
+        <v>716</v>
       </c>
       <c r="O723" s="2" t="s">
         <v>48</v>
@@ -52799,16 +52796,16 @@
         <v>1029</v>
       </c>
       <c r="F724" s="2" t="s">
-        <v>88</v>
+        <v>349</v>
       </c>
       <c r="G724" s="1" t="s">
-        <v>89</v>
+        <v>559</v>
       </c>
       <c r="H724" s="1" t="s">
-        <v>90</v>
+        <v>560</v>
       </c>
       <c r="I724" s="1" t="s">
-        <v>90</v>
+        <v>560</v>
       </c>
       <c r="J724" s="2" t="s">
         <v>28</v>
@@ -52823,10 +52820,10 @@
         <v>30</v>
       </c>
       <c r="N724" s="2" t="s">
-        <v>731</v>
+        <v>85</v>
       </c>
       <c r="O724" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="P724" s="2" t="s">
         <v>32</v>
@@ -52867,16 +52864,16 @@
         <v>1029</v>
       </c>
       <c r="F725" s="2" t="s">
-        <v>349</v>
+        <v>160</v>
       </c>
       <c r="G725" s="1" t="s">
-        <v>559</v>
+        <v>161</v>
       </c>
       <c r="H725" s="1" t="s">
-        <v>560</v>
+        <v>162</v>
       </c>
       <c r="I725" s="1" t="s">
-        <v>560</v>
+        <v>163</v>
       </c>
       <c r="J725" s="2" t="s">
         <v>28</v>
@@ -52891,10 +52888,10 @@
         <v>30</v>
       </c>
       <c r="N725" s="2" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="O725" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="P725" s="2" t="s">
         <v>32</v>
@@ -52906,7 +52903,7 @@
         <v>32</v>
       </c>
       <c r="S725" s="2" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="T725" s="2" t="s">
         <v>32</v>
@@ -52935,16 +52932,16 @@
         <v>1029</v>
       </c>
       <c r="F726" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G726" s="1" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="H726" s="1" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="I726" s="1" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="J726" s="2" t="s">
         <v>28</v>
@@ -52959,13 +52956,13 @@
         <v>30</v>
       </c>
       <c r="N726" s="2" t="s">
-        <v>32</v>
+        <v>1059</v>
       </c>
       <c r="O726" s="2" t="s">
-        <v>83</v>
+        <v>1060</v>
       </c>
       <c r="P726" s="2" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Q726" s="2" t="s">
         <v>32</v>
@@ -52974,7 +52971,7 @@
         <v>32</v>
       </c>
       <c r="S726" s="2" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="T726" s="2" t="s">
         <v>32</v>
@@ -52997,22 +52994,22 @@
         <v>22</v>
       </c>
       <c r="D727" s="2" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="E727" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F727" s="2" t="s">
-        <v>125</v>
+        <v>185</v>
       </c>
       <c r="G727" s="1" t="s">
-        <v>126</v>
+        <v>186</v>
       </c>
       <c r="H727" s="1" t="s">
-        <v>127</v>
+        <v>187</v>
       </c>
       <c r="I727" s="1" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="J727" s="2" t="s">
         <v>28</v>
@@ -53027,13 +53024,13 @@
         <v>30</v>
       </c>
       <c r="N727" s="2" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="O727" s="2" t="s">
-        <v>1061</v>
+        <v>32</v>
       </c>
       <c r="P727" s="2" t="s">
-        <v>48</v>
+        <v>1063</v>
       </c>
       <c r="Q727" s="2" t="s">
         <v>32</v>
@@ -53065,22 +53062,22 @@
         <v>22</v>
       </c>
       <c r="D728" s="2" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="E728" s="2" t="s">
         <v>1029</v>
       </c>
       <c r="F728" s="2" t="s">
-        <v>185</v>
+        <v>359</v>
       </c>
       <c r="G728" s="1" t="s">
-        <v>186</v>
+        <v>653</v>
       </c>
       <c r="H728" s="1" t="s">
-        <v>187</v>
+        <v>654</v>
       </c>
       <c r="I728" s="1" t="s">
-        <v>187</v>
+        <v>654</v>
       </c>
       <c r="J728" s="2" t="s">
         <v>28</v>
@@ -53095,13 +53092,13 @@
         <v>30</v>
       </c>
       <c r="N728" s="2" t="s">
-        <v>1063</v>
+        <v>25</v>
       </c>
       <c r="O728" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="P728" s="2" t="s">
-        <v>1064</v>
+        <v>32</v>
       </c>
       <c r="Q728" s="2" t="s">
         <v>32</v>
@@ -53139,16 +53136,16 @@
         <v>1029</v>
       </c>
       <c r="F729" s="2" t="s">
-        <v>359</v>
+        <v>266</v>
       </c>
       <c r="G729" s="1" t="s">
-        <v>653</v>
+        <v>267</v>
       </c>
       <c r="H729" s="1" t="s">
-        <v>654</v>
+        <v>268</v>
       </c>
       <c r="I729" s="1" t="s">
-        <v>654</v>
+        <v>268</v>
       </c>
       <c r="J729" s="2" t="s">
         <v>28</v>
@@ -53166,7 +53163,7 @@
         <v>25</v>
       </c>
       <c r="O729" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="P729" s="2" t="s">
         <v>32</v>
@@ -53207,16 +53204,16 @@
         <v>1029</v>
       </c>
       <c r="F730" s="2" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="G730" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="H730" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="I730" s="1" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="J730" s="2" t="s">
         <v>28</v>
@@ -53231,13 +53228,13 @@
         <v>30</v>
       </c>
       <c r="N730" s="2" t="s">
-        <v>25</v>
+        <v>1067</v>
       </c>
       <c r="O730" s="2" t="s">
-        <v>32</v>
+        <v>1068</v>
       </c>
       <c r="P730" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="Q730" s="2" t="s">
         <v>32</v>
@@ -53249,80 +53246,12 @@
         <v>32</v>
       </c>
       <c r="T730" s="2" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="U730" s="1" t="s">
         <v>33</v>
       </c>
       <c r="V730" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="731">
-      <c r="A731" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B731" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C731" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D731" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="E731" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="F731" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G731" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="H731" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="I731" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="J731" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K731" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L731" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M731" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N731" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="O731" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="P731" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q731" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R731" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S731" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T731" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="U731" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V731" s="2" t="s">
         <v>32</v>
       </c>
     </row>
